--- a/Graph/Dataset/Build/T2_Users-Games Relations.xlsx
+++ b/Graph/Dataset/Build/T2_Users-Games Relations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80124FD3-423A-4E4A-AA55-7EA57313D4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81643BC8-A017-4E9A-B472-3FB81EDB896B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,9 +698,6 @@
     <t>4286,4062,5679,3328,13537,13633,4252,13536</t>
   </si>
   <si>
-    <t>4286(5),4062(4),5679(5),3328(5),4252(5),3328(5),10213(4)</t>
-  </si>
-  <si>
     <t>13910,11934,3696,32,3192,3939</t>
   </si>
   <si>
@@ -728,12 +725,6 @@
     <t>13668(4),4570(5),3328(5),3070(4),58175(3)</t>
   </si>
   <si>
-    <t>5286,2454,5679,3328,10213,5286</t>
-  </si>
-  <si>
-    <t>5286(4),2454(5),5679(5),3328(3),10213(4),5286(2)</t>
-  </si>
-  <si>
     <t>3439,4286,4062,5679,3328,3498,4459</t>
   </si>
   <si>
@@ -914,13 +905,22 @@
     <t>20 (5)</t>
   </si>
   <si>
-    <t>FollowedCount</t>
-  </si>
-  <si>
     <t>Added Evaluation (N°Votes)</t>
   </si>
   <si>
     <t>13910(4),11934(5),3696(3),10213(2),3328(5)</t>
+  </si>
+  <si>
+    <t>FavouriteCount</t>
+  </si>
+  <si>
+    <t>4286(5),4062(4),5679(5),3328(5),4252(5),10213(4)</t>
+  </si>
+  <si>
+    <t>5286(4),2454(5),5679(5),3328(3),10213(4)</t>
+  </si>
+  <si>
+    <t>5286,2454,5679,3328,10213</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1241,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{26D506D9-2BD2-43E7-9C58-C554CDBE948C}" name="_id" dataDxfId="3" dataCellStyle="Normale 2"/>
     <tableColumn id="2" xr3:uid="{AA783048-BD38-4F7A-AA03-712F68C5855E}" name="name" dataDxfId="2" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" xr3:uid="{A0417774-BE33-4965-8B8F-62ABBA681D1B}" name="FollowedCount" dataDxfId="1" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" xr3:uid="{A0417774-BE33-4965-8B8F-62ABBA681D1B}" name="FavouriteCount" dataDxfId="1" dataCellStyle="Normale 2"/>
     <tableColumn id="3" xr3:uid="{FA8AEE81-053C-4E85-AE9B-234939040595}" name="Added Evaluation (N°Votes)" dataDxfId="0" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,10 +1549,10 @@
         <v>54</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1579,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1593,7 +1593,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>57</v>
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1735,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1905,7 +1905,7 @@
         <v>191</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>81</v>
@@ -1917,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1969,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2087,7 +2087,7 @@
         <v>202</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>95</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2177,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2203,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2281,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
         <v>219</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>115</v>
@@ -2359,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2370,10 +2370,10 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>117</v>
@@ -2385,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2396,10 +2396,10 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>119</v>
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2422,10 +2422,10 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>121</v>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2448,10 +2448,10 @@
         <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>123</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2474,10 +2474,10 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>125</v>
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2500,10 +2500,10 @@
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>127</v>
@@ -2515,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2526,10 +2526,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>129</v>
@@ -2541,7 +2541,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2567,7 +2567,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2578,10 +2578,10 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>133</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2604,10 +2604,10 @@
         <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>135</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2630,10 +2630,10 @@
         <v>45</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>137</v>
@@ -2645,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2656,10 +2656,10 @@
         <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>139</v>
@@ -2671,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2682,10 +2682,10 @@
         <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>141</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2708,10 +2708,10 @@
         <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>143</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2734,10 +2734,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>145</v>
@@ -2749,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2760,10 +2760,10 @@
         <v>50</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>147</v>
@@ -2775,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2803,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2817,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2831,7 +2831,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="7:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
